--- a/table01.xlsx
+++ b/table01.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="123820"/>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{366B9E4F-3C36-4A3A-9665-66B54FAE776E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B729084-4351-6A41-8C33-A07B92458F00}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{366B9E4F-3C36-4A3A-9665-66B54FAE776E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4FAE629-BEAE-0541-9AE2-C84BAA4A7EE8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="42140" windowHeight="30400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21900" yWindow="1840" windowWidth="42140" windowHeight="30400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="225">
   <si>
     <t>100 and over</t>
   </si>
@@ -567,6 +567,312 @@
   <si>
     <t>life_expectancy_at_age</t>
   </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>7-8</t>
+  </si>
+  <si>
+    <t>8-9</t>
+  </si>
+  <si>
+    <t>9-10</t>
+  </si>
+  <si>
+    <t>10-11</t>
+  </si>
+  <si>
+    <t>11-12</t>
+  </si>
+  <si>
+    <t>12-13</t>
+  </si>
+  <si>
+    <t>13-14</t>
+  </si>
+  <si>
+    <t>14-15</t>
+  </si>
+  <si>
+    <t>15-16</t>
+  </si>
+  <si>
+    <t>16-17</t>
+  </si>
+  <si>
+    <t>17-18</t>
+  </si>
+  <si>
+    <t>18-19</t>
+  </si>
+  <si>
+    <t>19-20</t>
+  </si>
+  <si>
+    <t>20-21</t>
+  </si>
+  <si>
+    <t>21-22</t>
+  </si>
+  <si>
+    <t>22-23</t>
+  </si>
+  <si>
+    <t>23-24</t>
+  </si>
+  <si>
+    <t>24-25</t>
+  </si>
+  <si>
+    <t>25-26</t>
+  </si>
+  <si>
+    <t>26-27</t>
+  </si>
+  <si>
+    <t>27-28</t>
+  </si>
+  <si>
+    <t>28-29</t>
+  </si>
+  <si>
+    <t>29-30</t>
+  </si>
+  <si>
+    <t>30-31</t>
+  </si>
+  <si>
+    <t>31-32</t>
+  </si>
+  <si>
+    <t>32-33</t>
+  </si>
+  <si>
+    <t>33-34</t>
+  </si>
+  <si>
+    <t>34-35</t>
+  </si>
+  <si>
+    <t>35-36</t>
+  </si>
+  <si>
+    <t>36-37</t>
+  </si>
+  <si>
+    <t>37-38</t>
+  </si>
+  <si>
+    <t>38-39</t>
+  </si>
+  <si>
+    <t>39-40</t>
+  </si>
+  <si>
+    <t>40-41</t>
+  </si>
+  <si>
+    <t>41-42</t>
+  </si>
+  <si>
+    <t>42-43</t>
+  </si>
+  <si>
+    <t>43-44</t>
+  </si>
+  <si>
+    <t>44-45</t>
+  </si>
+  <si>
+    <t>45-46</t>
+  </si>
+  <si>
+    <t>46-47</t>
+  </si>
+  <si>
+    <t>47-48</t>
+  </si>
+  <si>
+    <t>48-49</t>
+  </si>
+  <si>
+    <t>49-50</t>
+  </si>
+  <si>
+    <t>50-51</t>
+  </si>
+  <si>
+    <t>51-52</t>
+  </si>
+  <si>
+    <t>52-53</t>
+  </si>
+  <si>
+    <t>53-54</t>
+  </si>
+  <si>
+    <t>54-55</t>
+  </si>
+  <si>
+    <t>55-56</t>
+  </si>
+  <si>
+    <t>56-57</t>
+  </si>
+  <si>
+    <t>57-58</t>
+  </si>
+  <si>
+    <t>58-59</t>
+  </si>
+  <si>
+    <t>59-60</t>
+  </si>
+  <si>
+    <t>60-61</t>
+  </si>
+  <si>
+    <t>61-62</t>
+  </si>
+  <si>
+    <t>62-63</t>
+  </si>
+  <si>
+    <t>63-64</t>
+  </si>
+  <si>
+    <t>64-65</t>
+  </si>
+  <si>
+    <t>65-66</t>
+  </si>
+  <si>
+    <t>66-67</t>
+  </si>
+  <si>
+    <t>67-68</t>
+  </si>
+  <si>
+    <t>68-69</t>
+  </si>
+  <si>
+    <t>69-70</t>
+  </si>
+  <si>
+    <t>70-71</t>
+  </si>
+  <si>
+    <t>71-72</t>
+  </si>
+  <si>
+    <t>72-73</t>
+  </si>
+  <si>
+    <t>73-74</t>
+  </si>
+  <si>
+    <t>74-75</t>
+  </si>
+  <si>
+    <t>75-76</t>
+  </si>
+  <si>
+    <t>76-77</t>
+  </si>
+  <si>
+    <t>77-78</t>
+  </si>
+  <si>
+    <t>78-79</t>
+  </si>
+  <si>
+    <t>79-80</t>
+  </si>
+  <si>
+    <t>80-81</t>
+  </si>
+  <si>
+    <t>81-82</t>
+  </si>
+  <si>
+    <t>82-83</t>
+  </si>
+  <si>
+    <t>83-84</t>
+  </si>
+  <si>
+    <t>84-85</t>
+  </si>
+  <si>
+    <t>85-86</t>
+  </si>
+  <si>
+    <t>86-87</t>
+  </si>
+  <si>
+    <t>87-88</t>
+  </si>
+  <si>
+    <t>88-89</t>
+  </si>
+  <si>
+    <t>89-90</t>
+  </si>
+  <si>
+    <t>90-91</t>
+  </si>
+  <si>
+    <t>91-92</t>
+  </si>
+  <si>
+    <t>92-93</t>
+  </si>
+  <si>
+    <t>93-94</t>
+  </si>
+  <si>
+    <t>94-95</t>
+  </si>
+  <si>
+    <t>95-96</t>
+  </si>
+  <si>
+    <t>96-97</t>
+  </si>
+  <si>
+    <t>97-98</t>
+  </si>
+  <si>
+    <t>98-99</t>
+  </si>
+  <si>
+    <t>99-100</t>
+  </si>
+  <si>
+    <t>qx_2005</t>
+  </si>
+  <si>
+    <t>qx_2022</t>
+  </si>
 </sst>
 </file>
 
@@ -576,9 +882,16 @@
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -624,6 +937,17 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -779,53 +1103,73 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1132,10 +1476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE17D4E3-2F2B-E94D-8FA0-7989F02393D4}">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="M1" sqref="M1:O102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1143,2350 +1487,3268 @@
     <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="24" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="M1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" t="s">
+        <v>223</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="26">
         <v>5.6045660749077797E-3</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="27">
         <v>100000</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="27">
         <v>560.45660400390625</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="27">
         <v>99512.96875</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="27">
         <v>7745694.5</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="28">
         <v>77.456947326660156</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="M2" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="N2" s="37">
+        <v>6.8785000000000001E-3</v>
+      </c>
+      <c r="O2" s="26">
+        <v>5.6045660749077797E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="26">
         <v>4.4384211651049554E-4</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="30">
         <v>99439.546875</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="30">
         <v>44.135459899902344</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="30">
         <v>99417.484375</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="30">
         <v>7646181.5</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="31">
         <v>76.89276123046875</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="M3" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="N3" s="37">
+        <v>4.6339999999999999E-4</v>
+      </c>
+      <c r="O3" s="26">
+        <v>4.4384211651049554E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="26">
         <v>2.8387119527906179E-4</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="30">
         <v>99395.4140625</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="30">
         <v>28.215494155883789</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="30">
         <v>99381.3046875</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="30">
         <v>7546764</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="31">
         <v>75.926681518554688</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="M4" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="N4" s="37">
+        <v>3.0689999999999998E-4</v>
+      </c>
+      <c r="O4" s="26">
+        <v>2.8387119527906179E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="26">
         <v>2.2199927479960024E-4</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="30">
         <v>99367.1953125</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="30">
         <v>22.059444427490234</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="30">
         <v>99356.1640625</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="30">
         <v>7447382.5</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="31">
         <v>74.948097229003906</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="M5" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="N5" s="37">
+        <v>2.197E-4</v>
+      </c>
+      <c r="O5" s="26">
+        <v>2.2199927479960024E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="26">
         <v>1.6768417845014483E-4</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="30">
         <v>99345.1328125</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="30">
         <v>16.658607482910156</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="30">
         <v>99336.8046875</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="30">
         <v>7348026.5</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="31">
         <v>73.964637756347656</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="M6" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="N6" s="37">
+        <v>1.84E-4</v>
+      </c>
+      <c r="O6" s="26">
+        <v>1.6768417845014483E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="26">
         <v>1.5467102639377117E-4</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="30">
         <v>99328.4765625</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="30">
         <v>15.363237380981445</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="30">
         <v>99320.796875</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="30">
         <v>7248689.5</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="31">
         <v>72.976951599121094</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="M7" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="N7" s="37">
+        <v>1.7200000000000001E-4</v>
+      </c>
+      <c r="O7" s="26">
+        <v>1.5467102639377117E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="26">
         <v>1.3934898015577346E-4</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="30">
         <v>99313.1171875</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="30">
         <v>13.839181900024414</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="30">
         <v>99306.203125</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="30">
         <v>7149369</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="31">
         <v>71.988166809082031</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="M8" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="N8" s="37">
+        <v>1.5990000000000001E-4</v>
+      </c>
+      <c r="O8" s="26">
+        <v>1.3934898015577346E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="26">
         <v>1.2754186172969639E-4</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="30">
         <v>99299.28125</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="30">
         <v>12.664814949035645</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="30">
         <v>99292.953125</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="30">
         <v>7050062.5</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="31">
         <v>70.998123168945312</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="M9" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="N9" s="37">
+        <v>1.485E-4</v>
+      </c>
+      <c r="O9" s="26">
+        <v>1.2754186172969639E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="26">
         <v>1.1590241047088057E-4</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="30">
         <v>99286.6171875</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="30">
         <v>11.50755786895752</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="30">
         <v>99280.859375</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="30">
         <v>6950769.5</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="31">
         <v>70.007110595703125</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="M10" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N10" s="37">
+        <v>1.327E-4</v>
+      </c>
+      <c r="O10" s="26">
+        <v>1.1590241047088057E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="26">
         <v>1.0530801228014752E-4</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="30">
         <v>99275.109375</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="30">
         <v>10.454464912414551</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="30">
         <v>99269.8828125</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="30">
         <v>6851488.5</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="31">
         <v>69.015167236328125</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="M11" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="N11" s="37">
+        <v>1.1400000000000001E-4</v>
+      </c>
+      <c r="O11" s="26">
+        <v>1.0530801228014752E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="26">
         <v>1.0092421143781394E-4</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="30">
         <v>99264.65625</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="30">
         <v>10.018207550048828</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="30">
         <v>99259.6484375</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="30">
         <v>6752219</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="31">
         <v>68.022384643554688</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="M12" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="N12" s="37">
+        <v>1.004E-4</v>
+      </c>
+      <c r="O12" s="26">
+        <v>1.0092421143781394E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="26">
         <v>1.1151374928886071E-4</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="30">
         <v>99254.640625</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="30">
         <v>11.068257331848145</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="30">
         <v>99249.109375</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="30">
         <v>6652959</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="31">
         <v>67.029197692871094</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="M13" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="N13" s="37">
+        <v>1.0509999999999999E-4</v>
+      </c>
+      <c r="O13" s="26">
+        <v>1.1151374928886071E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="26">
         <v>1.4720711624249816E-4</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="30">
         <v>99243.5703125</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="30">
         <v>14.609359741210938</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="30">
         <v>99236.265625</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="30">
         <v>6553710</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="31">
         <v>66.03662109375</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="M14" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="N14" s="37">
+        <v>1.4249999999999999E-4</v>
+      </c>
+      <c r="O14" s="26">
+        <v>1.4720711624249816E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="26">
         <v>2.1340591774787754E-4</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="30">
         <v>99228.9609375</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="30">
         <v>21.176048278808594</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="30">
         <v>99218.375</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="30">
         <v>6454474</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="31">
         <v>65.046272277832031</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="M15" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="N15" s="37">
+        <v>2.208E-4</v>
+      </c>
+      <c r="O15" s="26">
+        <v>2.1340591774787754E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="26">
         <v>3.0228320974856615E-4</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="30">
         <v>99207.78125</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="30">
         <v>29.988845825195312</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="30">
         <v>99192.78125</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="30">
         <v>6355255.5</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="31">
         <v>64.060050964355469</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="M16" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="N16" s="37">
+        <v>3.2929999999999998E-4</v>
+      </c>
+      <c r="O16" s="26">
+        <v>3.0228320974856615E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="26">
         <v>4.0206755511462688E-4</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="30">
         <v>99177.7890625</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="30">
         <v>39.876171112060547</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="30">
         <v>99157.8515625</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="30">
         <v>6256062.5</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="31">
         <v>63.079269409179688</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="M17" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="N17" s="37">
+        <v>4.4920000000000002E-4</v>
+      </c>
+      <c r="O17" s="26">
+        <v>4.0206755511462688E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="26">
         <v>5.013616755604744E-4</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="30">
         <v>99137.9140625</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="30">
         <v>49.703948974609375</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="30">
         <v>99113.0625</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="30">
         <v>6156905</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="31">
         <v>62.104442596435547</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="M18" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="N18" s="37">
+        <v>5.6280000000000002E-4</v>
+      </c>
+      <c r="O18" s="26">
+        <v>5.013616755604744E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="26">
         <v>5.9624318964779377E-4</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="30">
         <v>99088.2109375</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="30">
         <v>59.080669403076172</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="30">
         <v>99058.671875</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="30">
         <v>6057792</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="31">
         <v>61.135345458984375</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+      <c r="M19" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="N19" s="37">
+        <v>6.6710000000000001E-4</v>
+      </c>
+      <c r="O19" s="26">
+        <v>5.9624318964779377E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="26">
         <v>6.803901051171124E-4</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="30">
         <v>99029.1328125</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="30">
         <v>67.378440856933594</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="30">
         <v>98995.4453125</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="30">
         <v>5958733</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="31">
         <v>60.171516418457031</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="M20" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="N20" s="37">
+        <v>7.5319999999999998E-4</v>
+      </c>
+      <c r="O20" s="26">
+        <v>6.803901051171124E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="26">
         <v>7.5602729339152575E-4</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="30">
         <v>98961.7578125</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="30">
         <v>74.817787170410156</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="30">
         <v>98924.34375</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="30">
         <v>5859737.5</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="31">
         <v>59.212139129638672</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="M21" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="N21" s="37">
+        <v>8.229E-4</v>
+      </c>
+      <c r="O21" s="26">
+        <v>7.5602729339152575E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="26">
         <v>8.3210412412881851E-4</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="30">
         <v>98886.9375</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="30">
         <v>82.284225463867188</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="30">
         <v>98845.796875</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="30">
         <v>5760813.5</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="31">
         <v>58.256565093994141</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+      <c r="M22" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="N22" s="37">
+        <v>8.9360000000000004E-4</v>
+      </c>
+      <c r="O22" s="26">
+        <v>8.3210412412881851E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="26">
         <v>9.1142207384109497E-4</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="30">
         <v>98804.65625</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="30">
         <v>90.052742004394531</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="30">
         <v>98759.625</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="30">
         <v>5661967.5</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="31">
         <v>57.304660797119141</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="M23" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="N23" s="37">
+        <v>9.6159999999999995E-4</v>
+      </c>
+      <c r="O23" s="26">
+        <v>9.1142207384109497E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="26">
         <v>9.8928064107894897E-4</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="30">
         <v>98714.6015625</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="30">
         <v>97.656440734863281</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="30">
         <v>98665.7734375</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="30">
         <v>5563208</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="31">
         <v>56.356487274169922</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
+      <c r="M24" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="N24" s="37">
+        <v>1.0045E-3</v>
+      </c>
+      <c r="O24" s="26">
+        <v>9.8928064107894897E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="26">
         <v>1.0674551595002413E-3</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="30">
         <v>98616.9453125</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="30">
         <v>105.2691650390625</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="30">
         <v>98564.3125</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="30">
         <v>5464542</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="31">
         <v>55.411796569824219</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
+      <c r="M25" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="N25" s="37">
+        <v>1.0154999999999999E-3</v>
+      </c>
+      <c r="O25" s="26">
+        <v>1.0674551595002413E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="26">
         <v>1.1481443652883172E-3</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="30">
         <v>98511.6796875</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="30">
         <v>113.10562896728516</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="30">
         <v>98455.125</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="30">
         <v>5365978</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="31">
         <v>54.470474243164062</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
+      <c r="M26" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="N26" s="37">
+        <v>1.0034E-3</v>
+      </c>
+      <c r="O26" s="26">
+        <v>1.1481443652883172E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="26">
         <v>1.2305363779887557E-3</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="30">
         <v>98398.5703125</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="30">
         <v>121.08302307128906</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="30">
         <v>98338.03125</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="30">
         <v>5267522.5</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="31">
         <v>53.532508850097656</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
+      <c r="M27" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="N27" s="37">
+        <v>9.8259999999999992E-4</v>
+      </c>
+      <c r="O27" s="26">
+        <v>1.2305363779887557E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="26">
         <v>1.3160092057660222E-3</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="30">
         <v>98277.484375</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="30">
         <v>129.33407592773438</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="30">
         <v>98212.8125</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="30">
         <v>5169184.5</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="31">
         <v>52.597850799560547</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
+      <c r="M28" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="N28" s="37">
+        <v>9.6699999999999998E-4</v>
+      </c>
+      <c r="O28" s="26">
+        <v>1.3160092057660222E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="26">
         <v>1.406351919285953E-3</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="30">
         <v>98148.1484375</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="30">
         <v>138.03083801269531</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="30">
         <v>98079.1328125</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="30">
         <v>5070972</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="31">
         <v>51.666507720947266</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
+      <c r="M29" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="N29" s="37">
+        <v>9.6040000000000003E-4</v>
+      </c>
+      <c r="O29" s="26">
+        <v>1.406351919285953E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="26">
         <v>1.4992424985393882E-3</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="30">
         <v>98010.1171875</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="30">
         <v>146.94093322753906</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="30">
         <v>97936.6484375</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="30">
         <v>4972892.5</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="31">
         <v>50.738563537597656</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
+      <c r="M30" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="N30" s="37">
+        <v>9.701E-4</v>
+      </c>
+      <c r="O30" s="26">
+        <v>1.4992424985393882E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="26">
         <v>1.5907110646367073E-3</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="30">
         <v>97863.1796875</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="30">
         <v>155.67204284667969</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="30">
         <v>97785.34375</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="30">
         <v>4874956</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="31">
         <v>49.813995361328125</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
+      <c r="M31" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="N31" s="37">
+        <v>9.9400000000000009E-4</v>
+      </c>
+      <c r="O31" s="26">
+        <v>1.5907110646367073E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="26">
         <v>1.6815533163025975E-3</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="30">
         <v>97707.5078125</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="30">
         <v>164.30038452148438</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="30">
         <v>97625.359375</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="30">
         <v>4777170.5</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="31">
         <v>48.892562866210938</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
+      <c r="M32" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="N32" s="37">
+        <v>1.0273000000000001E-3</v>
+      </c>
+      <c r="O32" s="26">
+        <v>1.6815533163025975E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="26">
         <v>1.7694801790639758E-3</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="30">
         <v>97543.2109375</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="30">
         <v>172.60078430175781</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="30">
         <v>97456.90625</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="30">
         <v>4679545.5</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="31">
         <v>47.974075317382812</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
+      <c r="M33" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="N33" s="37">
+        <v>1.0648999999999999E-3</v>
+      </c>
+      <c r="O33" s="26">
+        <v>1.7694801790639758E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="26">
         <v>1.8509230576455593E-3</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="30">
         <v>97370.609375</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="30">
         <v>180.22550964355469</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="30">
         <v>97280.5</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="30">
         <v>4582088.5</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="31">
         <v>47.058231353759766</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
+      <c r="M34" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="N34" s="37">
+        <v>1.1150999999999999E-3</v>
+      </c>
+      <c r="O34" s="26">
+        <v>1.8509230576455593E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="26">
         <v>1.9268181640654802E-3</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="30">
         <v>97190.3828125</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="30">
         <v>187.2681884765625</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="30">
         <v>97096.75</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="30">
         <v>4484808</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G35" s="31">
         <v>46.144565582275391</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
+      <c r="M35" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="N35" s="37">
+        <v>1.1543E-3</v>
+      </c>
+      <c r="O35" s="26">
+        <v>1.9268181640654802E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="26">
         <v>2.0017654169350863E-3</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="30">
         <v>97003.1171875</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="30">
         <v>194.177490234375</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="30">
         <v>96906.03125</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="30">
         <v>4387711</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="31">
         <v>45.232681274414062</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
+      <c r="M36" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="N36" s="37">
+        <v>1.2091000000000001E-3</v>
+      </c>
+      <c r="O36" s="26">
+        <v>2.0017654169350863E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="26">
         <v>2.0797373726963997E-3</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="30">
         <v>96808.9375</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="30">
         <v>201.337158203125</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="30">
         <v>96708.265625</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="30">
         <v>4290805</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="31">
         <v>44.322406768798828</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="s">
+      <c r="M37" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="N37" s="37">
+        <v>1.2712999999999999E-3</v>
+      </c>
+      <c r="O37" s="26">
+        <v>2.0797373726963997E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="26">
         <v>2.1643158979713917E-3</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="30">
         <v>96607.6015625</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="30">
         <v>209.08937072753906</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="30">
         <v>96503.0625</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="30">
         <v>4194097</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="31">
         <v>43.413738250732422</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
+      <c r="M38" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="N38" s="37">
+        <v>1.3512000000000001E-3</v>
+      </c>
+      <c r="O38" s="26">
+        <v>2.1643158979713917E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="26">
         <v>2.2572379093617201E-3</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="30">
         <v>96398.515625</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="30">
         <v>217.59439086914062</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="30">
         <v>96289.71875</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="30">
         <v>4097593.75</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="31">
         <v>42.506813049316406</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
+      <c r="M39" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="N39" s="37">
+        <v>1.4603999999999999E-3</v>
+      </c>
+      <c r="O39" s="26">
+        <v>2.2572379093617201E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="26">
         <v>2.3592254146933556E-3</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="30">
         <v>96180.921875</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="30">
         <v>226.9124755859375</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="30">
         <v>96067.46875</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="30">
         <v>4001304</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G40" s="31">
         <v>41.601848602294922</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
+      <c r="M40" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="N40" s="37">
+        <v>1.6029E-3</v>
+      </c>
+      <c r="O40" s="26">
+        <v>2.3592254146933556E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="26">
         <v>2.4689026176929474E-3</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="30">
         <v>95954.0078125</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="30">
         <v>236.90110778808594</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="30">
         <v>95835.5625</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="30">
         <v>3905236.75</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G41" s="31">
         <v>40.699047088623047</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="12" t="s">
+      <c r="M41" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="N41" s="37">
+        <v>1.7691E-3</v>
+      </c>
+      <c r="O41" s="26">
+        <v>2.4689026176929474E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="26">
         <v>2.5927049573510885E-3</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="30">
         <v>95717.109375</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="30">
         <v>248.16622924804688</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="30">
         <v>95593.03125</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="30">
         <v>3809401</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G42" s="31">
         <v>39.798538208007812</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="12" t="s">
+      <c r="M42" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="N42" s="37">
+        <v>1.9430000000000001E-3</v>
+      </c>
+      <c r="O42" s="26">
+        <v>2.5927049573510885E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="26">
         <v>2.7248109690845013E-3</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="30">
         <v>95468.9453125</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="30">
         <v>260.13482666015625</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="30">
         <v>95338.875</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="30">
         <v>3713808</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G43" s="31">
         <v>38.900691986083984</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="12" t="s">
+      <c r="M43" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="N43" s="37">
+        <v>2.1202999999999999E-3</v>
+      </c>
+      <c r="O43" s="26">
+        <v>2.7248109690845013E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="26">
         <v>2.8541490901261568E-3</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="30">
         <v>95208.8125</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="30">
         <v>271.74014282226562</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="30">
         <v>95072.9375</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="30">
         <v>3618469.25</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G44" s="31">
         <v>38.005611419677734</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="12" t="s">
+      <c r="M44" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="N44" s="37">
+        <v>2.3111999999999998E-3</v>
+      </c>
+      <c r="O44" s="26">
+        <v>2.8541490901261568E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="26">
         <v>2.97964783385396E-3</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="30">
         <v>94937.0703125</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="30">
         <v>282.8790283203125</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="30">
         <v>94795.625</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="30">
         <v>3523396.25</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G45" s="31">
         <v>37.112964630126953</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="12" t="s">
+      <c r="M45" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="N45" s="37">
+        <v>2.5198999999999998E-3</v>
+      </c>
+      <c r="O45" s="26">
+        <v>2.97964783385396E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="26">
         <v>3.1129398848861456E-3</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="30">
         <v>94654.1875</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="30">
         <v>294.65280151367188</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="30">
         <v>94506.859375</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="30">
         <v>3428600.5</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G46" s="31">
         <v>36.222385406494141</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="12" t="s">
+      <c r="M46" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="N46" s="37">
+        <v>2.7472999999999998E-3</v>
+      </c>
+      <c r="O46" s="26">
+        <v>3.1129398848861456E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="26">
         <v>3.2710854429751635E-3</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="30">
         <v>94359.53125</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="30">
         <v>308.6580810546875</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="30">
         <v>94205.203125</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="30">
         <v>3334093.75</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G47" s="31">
         <v>35.333938598632812</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="s">
+      <c r="M47" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="N47" s="37">
+        <v>2.9889999999999999E-3</v>
+      </c>
+      <c r="O47" s="26">
+        <v>3.2710854429751635E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="26">
         <v>3.4662270918488503E-3</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="30">
         <v>94050.875</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="30">
         <v>326.00167846679688</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="30">
         <v>93887.875</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="30">
         <v>3239888.5</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G48" s="31">
         <v>34.448253631591797</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="s">
+      <c r="M48" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="N48" s="37">
+        <v>3.2422000000000002E-3</v>
+      </c>
+      <c r="O48" s="26">
+        <v>3.4662270918488503E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="26">
         <v>3.6946567706763744E-3</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="30">
         <v>93724.875</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="30">
         <v>346.28125</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="30">
         <v>93551.734375</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="30">
         <v>3146000.75</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G49" s="31">
         <v>33.566337585449219</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
+      <c r="M49" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="N49" s="37">
+        <v>3.5122999999999999E-3</v>
+      </c>
+      <c r="O49" s="26">
+        <v>3.6946567706763744E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="26">
         <v>3.949933685362339E-3</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="30">
         <v>93378.59375</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="30">
         <v>368.83926391601562</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="30">
         <v>93194.171875</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F50" s="30">
         <v>3052449</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G50" s="31">
         <v>32.688957214355469</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="12" t="s">
+      <c r="M50" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="N50" s="37">
+        <v>3.8032000000000001E-3</v>
+      </c>
+      <c r="O50" s="26">
+        <v>3.949933685362339E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="26">
         <v>4.2257155291736126E-3</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="30">
         <v>93009.7578125</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="30">
         <v>393.03277587890625</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="30">
         <v>92813.2421875</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51" s="30">
         <v>2959254.75</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G51" s="31">
         <v>31.816604614257812</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="12" t="s">
+      <c r="M51" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="N51" s="37">
+        <v>4.1174999999999996E-3</v>
+      </c>
+      <c r="O51" s="26">
+        <v>4.2257155291736126E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="26">
         <v>4.5147612690925598E-3</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="30">
         <v>92616.7265625</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="30">
         <v>418.14239501953125</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="30">
         <v>92407.65625</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F52" s="30">
         <v>2866441.5</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G52" s="31">
         <v>30.949501037597656</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="s">
+      <c r="M52" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="N52" s="37">
+        <v>4.4638999999999998E-3</v>
+      </c>
+      <c r="O52" s="26">
+        <v>4.5147612690925598E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="26">
         <v>4.8330896534025669E-3</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="30">
         <v>92198.5859375</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="30">
         <v>445.60403442382812</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="30">
         <v>91975.78125</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F53" s="30">
         <v>2774033.75</v>
       </c>
-      <c r="G53" s="14">
+      <c r="G53" s="31">
         <v>30.087594985961914</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
+      <c r="M53" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="N53" s="37">
+        <v>4.8365999999999999E-3</v>
+      </c>
+      <c r="O53" s="26">
+        <v>4.8330896534025669E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="26">
         <v>5.2038128487765789E-3</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="30">
         <v>91752.984375</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D54" s="30">
         <v>477.46536254882812</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E54" s="30">
         <v>91514.25</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F54" s="30">
         <v>2682058</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G54" s="31">
         <v>29.231288909912109</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="12" t="s">
+      <c r="M54" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="N54" s="37">
+        <v>5.2173000000000002E-3</v>
+      </c>
+      <c r="O54" s="26">
+        <v>5.2038128487765789E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="26">
         <v>5.6472192518413067E-3</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="30">
         <v>91275.515625</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D55" s="30">
         <v>515.45281982421875</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E55" s="30">
         <v>91017.7890625</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F55" s="30">
         <v>2590543.75</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G55" s="31">
         <v>28.381584167480469</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="12" t="s">
+      <c r="M55" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="N55" s="37">
+        <v>5.5909000000000002E-3</v>
+      </c>
+      <c r="O55" s="26">
+        <v>5.6472192518413067E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="26">
         <v>6.1621745117008686E-3</v>
       </c>
-      <c r="C56" s="13">
+      <c r="C56" s="30">
         <v>90760.0625</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D56" s="30">
         <v>559.27935791015625</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E56" s="30">
         <v>90480.421875</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F56" s="30">
         <v>2499526</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G56" s="31">
         <v>27.539932250976562</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="12" t="s">
+      <c r="M56" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="N56" s="37">
+        <v>5.9630000000000004E-3</v>
+      </c>
+      <c r="O56" s="26">
+        <v>6.1621745117008686E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="26">
         <v>6.7089321091771126E-3</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="30">
         <v>90200.78125</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="30">
         <v>605.15093994140625</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="30">
         <v>89898.203125</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F57" s="30">
         <v>2409045.75</v>
       </c>
-      <c r="G57" s="14">
+      <c r="G57" s="31">
         <v>26.707592010498047</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="12" t="s">
+      <c r="M57" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="N57" s="37">
+        <v>6.3457000000000001E-3</v>
+      </c>
+      <c r="O57" s="26">
+        <v>6.7089321091771126E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="26">
         <v>7.2853327728807926E-3</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58" s="30">
         <v>89595.6328125</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D58" s="30">
         <v>652.7340087890625</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E58" s="30">
         <v>89269.265625</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F58" s="30">
         <v>2319147.5</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G58" s="31">
         <v>25.884603500366211</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="12" t="s">
+      <c r="M58" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="N58" s="37">
+        <v>6.7682000000000003E-3</v>
+      </c>
+      <c r="O58" s="26">
+        <v>7.2853327728807926E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="26">
         <v>7.9303709790110588E-3</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C59" s="30">
         <v>88942.8984375</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D59" s="30">
         <v>705.35015869140625</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E59" s="30">
         <v>88590.21875</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F59" s="30">
         <v>2229878.25</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G59" s="31">
         <v>25.070896148681641</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="12" t="s">
+      <c r="M59" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="N59" s="37">
+        <v>7.2610000000000001E-3</v>
+      </c>
+      <c r="O59" s="26">
+        <v>7.9303709790110588E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="26">
         <v>8.6412737146019936E-3</v>
       </c>
-      <c r="C60" s="13">
+      <c r="C60" s="30">
         <v>88237.546875</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D60" s="30">
         <v>762.48480224609375</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E60" s="30">
         <v>87856.3046875</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F60" s="30">
         <v>2141288</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G60" s="31">
         <v>24.267311096191406</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="12" t="s">
+      <c r="M60" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="N60" s="37">
+        <v>7.8654999999999992E-3</v>
+      </c>
+      <c r="O60" s="26">
+        <v>8.6412737146019936E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B61" s="26">
         <v>9.3922168016433716E-3</v>
       </c>
-      <c r="C61" s="13">
+      <c r="C61" s="30">
         <v>87475.0625</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D61" s="30">
         <v>821.58477783203125</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E61" s="30">
         <v>87064.265625</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F61" s="30">
         <v>2053431.625</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G61" s="31">
         <v>23.474479675292969</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="12" t="s">
+      <c r="M61" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="N61" s="37">
+        <v>8.5959000000000001E-3</v>
+      </c>
+      <c r="O61" s="26">
+        <v>9.3922168016433716E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="26">
         <v>1.017276756465435E-2</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C62" s="30">
         <v>86653.4765625</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D62" s="30">
         <v>881.50567626953125</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E62" s="30">
         <v>86212.71875</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F62" s="30">
         <v>1966367.375</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G62" s="31">
         <v>22.69230842590332</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="12" t="s">
+      <c r="M62" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="N62" s="37">
+        <v>9.4725999999999994E-3</v>
+      </c>
+      <c r="O62" s="26">
+        <v>1.017276756465435E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="26">
         <v>1.0960295796394348E-2</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="30">
         <v>85771.96875</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D63" s="30">
         <v>940.08612060546875</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E63" s="30">
         <v>85301.921875</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F63" s="30">
         <v>1880154.625</v>
       </c>
-      <c r="G63" s="14">
+      <c r="G63" s="31">
         <v>21.920385360717773</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="12" t="s">
+      <c r="M63" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="N63" s="37">
+        <v>1.04495E-2</v>
+      </c>
+      <c r="O63" s="26">
+        <v>1.0960295796394348E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64" s="26">
         <v>1.1741255410015583E-2</v>
       </c>
-      <c r="C64" s="13">
+      <c r="C64" s="30">
         <v>84831.8828125</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D64" s="30">
         <v>996.03277587890625</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E64" s="30">
         <v>84333.8671875</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F64" s="30">
         <v>1794852.75</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G64" s="31">
         <v>21.157760620117188</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="12" t="s">
+      <c r="M64" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="N64" s="37">
+        <v>1.1455699999999999E-2</v>
+      </c>
+      <c r="O64" s="26">
+        <v>1.1741255410015583E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="26">
         <v>1.2523766607046127E-2</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C65" s="30">
         <v>83835.8515625</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D65" s="30">
         <v>1049.940673828125</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E65" s="30">
         <v>83310.8828125</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F65" s="30">
         <v>1710518.875</v>
       </c>
-      <c r="G65" s="14">
+      <c r="G65" s="31">
         <v>20.403190612792969</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="12" t="s">
+      <c r="M65" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="N65" s="37">
+        <v>1.24069E-2</v>
+      </c>
+      <c r="O65" s="26">
+        <v>1.2523766607046127E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="26">
         <v>1.3340290635824203E-2</v>
       </c>
-      <c r="C66" s="13">
+      <c r="C66" s="30">
         <v>82785.9140625</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D66" s="30">
         <v>1104.38818359375</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E66" s="30">
         <v>82233.71875</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F66" s="30">
         <v>1627208</v>
       </c>
-      <c r="G66" s="14">
+      <c r="G66" s="31">
         <v>19.655614852905273</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="12" t="s">
+      <c r="M66" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="N66" s="37">
+        <v>1.33195E-2</v>
+      </c>
+      <c r="O66" s="26">
+        <v>1.3340290635824203E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="26">
         <v>1.4218278229236603E-2</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="30">
         <v>81681.5234375</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D67" s="30">
         <v>1161.37060546875</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E67" s="30">
         <v>81100.84375</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F67" s="30">
         <v>1544974.25</v>
       </c>
-      <c r="G67" s="14">
+      <c r="G67" s="31">
         <v>18.91461181640625</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="12" t="s">
+      <c r="M67" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="N67" s="37">
+        <v>1.4298999999999999E-2</v>
+      </c>
+      <c r="O67" s="26">
+        <v>1.4218278229236603E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68" s="26">
         <v>1.5279612503945827E-2</v>
       </c>
-      <c r="C68" s="13">
+      <c r="C68" s="30">
         <v>80520.15625</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D68" s="30">
         <v>1230.3167724609375</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E68" s="30">
         <v>79905</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F68" s="30">
         <v>1463873.375</v>
       </c>
-      <c r="G68" s="14">
+      <c r="G68" s="31">
         <v>18.180210113525391</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="12" t="s">
+      <c r="M68" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="N68" s="37">
+        <v>1.5322799999999999E-2</v>
+      </c>
+      <c r="O68" s="26">
+        <v>1.5279612503945827E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69" s="26">
         <v>1.6329443082213402E-2</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="30">
         <v>79289.8359375</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D69" s="30">
         <v>1294.7589111328125</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E69" s="30">
         <v>78642.453125</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F69" s="30">
         <v>1383968.375</v>
       </c>
-      <c r="G69" s="14">
+      <c r="G69" s="31">
         <v>17.454549789428711</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="12" t="s">
+      <c r="M69" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="N69" s="37">
+        <v>1.6557700000000002E-2</v>
+      </c>
+      <c r="O69" s="26">
+        <v>1.6329443082213402E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B70" s="9">
+      <c r="B70" s="26">
         <v>1.7523877322673798E-2</v>
       </c>
-      <c r="C70" s="13">
+      <c r="C70" s="30">
         <v>77995.078125</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D70" s="30">
         <v>1366.776123046875</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E70" s="30">
         <v>77311.6875</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F70" s="30">
         <v>1305326</v>
       </c>
-      <c r="G70" s="14">
+      <c r="G70" s="31">
         <v>16.736003875732422</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="12" t="s">
+      <c r="M70" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="N70" s="37">
+        <v>1.8028700000000002E-2</v>
+      </c>
+      <c r="O70" s="26">
+        <v>1.7523877322673798E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="9">
+      <c r="B71" s="26">
         <v>1.8824143335223198E-2</v>
       </c>
-      <c r="C71" s="13">
+      <c r="C71" s="30">
         <v>76628.3046875</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D71" s="30">
         <v>1442.462158203125</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E71" s="30">
         <v>75907.078125</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F71" s="30">
         <v>1228014.25</v>
       </c>
-      <c r="G71" s="14">
+      <c r="G71" s="31">
         <v>16.025596618652344</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="12" t="s">
+      <c r="M71" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="N71" s="37">
+        <v>1.9723299999999999E-2</v>
+      </c>
+      <c r="O71" s="26">
+        <v>1.8824143335223198E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B72" s="9">
+      <c r="B72" s="26">
         <v>2.0178917795419693E-2</v>
       </c>
-      <c r="C72" s="13">
+      <c r="C72" s="30">
         <v>75185.84375</v>
       </c>
-      <c r="D72" s="13">
+      <c r="D72" s="30">
         <v>1517.1689453125</v>
       </c>
-      <c r="E72" s="13">
+      <c r="E72" s="30">
         <v>74427.2578125</v>
       </c>
-      <c r="F72" s="13">
+      <c r="F72" s="30">
         <v>1152107.25</v>
       </c>
-      <c r="G72" s="14">
+      <c r="G72" s="31">
         <v>15.323459625244141</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="12" t="s">
+      <c r="M72" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="N72" s="37">
+        <v>2.1606500000000001E-2</v>
+      </c>
+      <c r="O72" s="26">
+        <v>2.0178917795419693E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B73" s="9">
+      <c r="B73" s="26">
         <v>2.1711178123950958E-2</v>
       </c>
-      <c r="C73" s="13">
+      <c r="C73" s="30">
         <v>73668.671875</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D73" s="30">
         <v>1599.4337158203125</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E73" s="30">
         <v>72868.953125</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F73" s="30">
         <v>1077680</v>
       </c>
-      <c r="G73" s="14">
+      <c r="G73" s="31">
         <v>14.628742218017578</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="12" t="s">
+      <c r="M73" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="N73" s="37">
+        <v>2.3722500000000001E-2</v>
+      </c>
+      <c r="O73" s="26">
+        <v>2.1711178123950958E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B74" s="26">
         <v>2.3520652204751968E-2</v>
       </c>
-      <c r="C74" s="13">
+      <c r="C74" s="30">
         <v>72069.234375</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D74" s="30">
         <v>1695.1153564453125</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E74" s="30">
         <v>71221.671875</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F74" s="30">
         <v>1004811</v>
       </c>
-      <c r="G74" s="14">
+      <c r="G74" s="31">
         <v>13.942301750183105</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="12" t="s">
+      <c r="M74" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="N74" s="37">
+        <v>2.6142499999999999E-2</v>
+      </c>
+      <c r="O74" s="26">
+        <v>2.3520652204751968E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B75" s="9">
+      <c r="B75" s="26">
         <v>2.5617793202400208E-2</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="30">
         <v>70374.1171875</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D75" s="30">
         <v>1802.82958984375</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E75" s="30">
         <v>69472.703125</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F75" s="30">
         <v>933589.3125</v>
       </c>
-      <c r="G75" s="14">
+      <c r="G75" s="31">
         <v>13.26608943939209</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="12" t="s">
+      <c r="M75" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="N75" s="37">
+        <v>2.8891900000000002E-2</v>
+      </c>
+      <c r="O75" s="26">
+        <v>2.5617793202400208E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="B76" s="9">
+      <c r="B76" s="26">
         <v>2.8122082352638245E-2</v>
       </c>
-      <c r="C76" s="13">
+      <c r="C76" s="30">
         <v>68571.2890625</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D76" s="30">
         <v>1928.367431640625</v>
       </c>
-      <c r="E76" s="13">
+      <c r="E76" s="30">
         <v>67607.109375</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F76" s="30">
         <v>864116.625</v>
       </c>
-      <c r="G76" s="14">
+      <c r="G76" s="31">
         <v>12.601726531982422</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="12" t="s">
+      <c r="M76" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="N76" s="37">
+        <v>3.1988299999999997E-2</v>
+      </c>
+      <c r="O76" s="26">
+        <v>2.8122082352638245E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B77" s="9">
+      <c r="B77" s="26">
         <v>3.0466774478554726E-2</v>
       </c>
-      <c r="C77" s="13">
+      <c r="C77" s="30">
         <v>66642.921875</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D77" s="30">
         <v>2030.3948974609375</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E77" s="30">
         <v>65627.7265625</v>
       </c>
-      <c r="F77" s="13">
+      <c r="F77" s="30">
         <v>796509.5</v>
       </c>
-      <c r="G77" s="14">
+      <c r="G77" s="31">
         <v>11.951899528503418</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="12" t="s">
+      <c r="M77" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="N77" s="37">
+        <v>3.5475600000000003E-2</v>
+      </c>
+      <c r="O77" s="26">
+        <v>3.0466774478554726E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="B78" s="9">
+      <c r="B78" s="26">
         <v>3.4339193254709244E-2</v>
       </c>
-      <c r="C78" s="13">
+      <c r="C78" s="30">
         <v>64612.52734375</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D78" s="30">
         <v>2218.741943359375</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E78" s="30">
         <v>63503.15625</v>
       </c>
-      <c r="F78" s="13">
+      <c r="F78" s="30">
         <v>730881.75</v>
       </c>
-      <c r="G78" s="14">
+      <c r="G78" s="31">
         <v>11.311765670776367</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="12" t="s">
+      <c r="M78" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="N78" s="37">
+        <v>3.9238099999999998E-2</v>
+      </c>
+      <c r="O78" s="26">
+        <v>3.4339193254709244E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="B79" s="9">
+      <c r="B79" s="26">
         <v>3.7380039691925049E-2</v>
       </c>
-      <c r="C79" s="13">
+      <c r="C79" s="30">
         <v>62393.78515625</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D79" s="30">
         <v>2332.2822265625</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E79" s="30">
         <v>61227.64453125</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F79" s="30">
         <v>667378.625</v>
       </c>
-      <c r="G79" s="14">
+      <c r="G79" s="31">
         <v>10.696235656738281</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="12" t="s">
+      <c r="M79" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="N79" s="37">
+        <v>4.3381799999999998E-2</v>
+      </c>
+      <c r="O79" s="26">
+        <v>3.7380039691925049E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B80" s="9">
+      <c r="B80" s="26">
         <v>4.1499711573123932E-2</v>
       </c>
-      <c r="C80" s="13">
+      <c r="C80" s="30">
         <v>60061.50390625</v>
       </c>
-      <c r="D80" s="13">
+      <c r="D80" s="30">
         <v>2492.53515625</v>
       </c>
-      <c r="E80" s="13">
+      <c r="E80" s="30">
         <v>58815.234375</v>
       </c>
-      <c r="F80" s="13">
+      <c r="F80" s="30">
         <v>606151</v>
       </c>
-      <c r="G80" s="14">
+      <c r="G80" s="31">
         <v>10.092171669006348</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="12" t="s">
+      <c r="M80" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="N80" s="37">
+        <v>4.79411E-2</v>
+      </c>
+      <c r="O80" s="26">
+        <v>4.1499711573123932E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="B81" s="9">
+      <c r="B81" s="26">
         <v>4.5247048139572144E-2</v>
       </c>
-      <c r="C81" s="13">
+      <c r="C81" s="30">
         <v>57568.96875</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D81" s="30">
         <v>2604.825927734375</v>
       </c>
-      <c r="E81" s="13">
+      <c r="E81" s="30">
         <v>56266.5546875</v>
       </c>
-      <c r="F81" s="13">
+      <c r="F81" s="30">
         <v>547335.75</v>
       </c>
-      <c r="G81" s="14">
+      <c r="G81" s="31">
         <v>9.5074787139892578</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="12" t="s">
+      <c r="M81" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="N81" s="37">
+        <v>5.2953100000000003E-2</v>
+      </c>
+      <c r="O81" s="26">
+        <v>4.5247048139572144E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B82" s="9">
+      <c r="B82" s="26">
         <v>5.0833046436309814E-2</v>
       </c>
-      <c r="C82" s="13">
+      <c r="C82" s="30">
         <v>54964.14453125</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D82" s="30">
         <v>2793.994873046875</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E82" s="30">
         <v>53567.1484375</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F82" s="30">
         <v>491069.1875</v>
       </c>
-      <c r="G82" s="14">
+      <c r="G82" s="31">
         <v>8.9343547821044922</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="12" t="s">
+      <c r="M82" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="N82" s="37">
+        <v>5.8456899999999999E-2</v>
+      </c>
+      <c r="O82" s="26">
+        <v>5.0833046436309814E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B83" s="9">
+      <c r="B83" s="26">
         <v>5.6254032999277115E-2</v>
       </c>
-      <c r="C83" s="13">
+      <c r="C83" s="30">
         <v>52170.1484375</v>
       </c>
-      <c r="D83" s="13">
+      <c r="D83" s="30">
         <v>2934.78125</v>
       </c>
-      <c r="E83" s="13">
+      <c r="E83" s="30">
         <v>50702.7578125</v>
       </c>
-      <c r="F83" s="13">
+      <c r="F83" s="30">
         <v>437502.03125</v>
       </c>
-      <c r="G83" s="14">
+      <c r="G83" s="31">
         <v>8.3860607147216797</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="12" t="s">
+      <c r="M83" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="N83" s="37">
+        <v>6.4493800000000004E-2</v>
+      </c>
+      <c r="O83" s="26">
+        <v>5.6254032999277115E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="B84" s="9">
+      <c r="B84" s="26">
         <v>6.2470700591802597E-2</v>
       </c>
-      <c r="C84" s="13">
+      <c r="C84" s="30">
         <v>49235.3671875</v>
       </c>
-      <c r="D84" s="13">
+      <c r="D84" s="30">
         <v>3075.767822265625</v>
       </c>
-      <c r="E84" s="13">
+      <c r="E84" s="30">
         <v>47697.484375</v>
       </c>
-      <c r="F84" s="13">
+      <c r="F84" s="30">
         <v>386799.28125</v>
       </c>
-      <c r="G84" s="14">
+      <c r="G84" s="31">
         <v>7.8561267852783203</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="12" t="s">
+      <c r="M84" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="N84" s="37">
+        <v>7.1107000000000004E-2</v>
+      </c>
+      <c r="O84" s="26">
+        <v>6.2470700591802597E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B85" s="9">
+      <c r="B85" s="26">
         <v>6.9525532424449921E-2</v>
       </c>
-      <c r="C85" s="13">
+      <c r="C85" s="30">
         <v>46159.59765625</v>
       </c>
-      <c r="D85" s="13">
+      <c r="D85" s="30">
         <v>3209.2705078125</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E85" s="30">
         <v>44554.9609375</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F85" s="30">
         <v>339101.78125</v>
       </c>
-      <c r="G85" s="14">
+      <c r="G85" s="31">
         <v>7.3462896347045898</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="12" t="s">
+      <c r="M85" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="N85" s="37">
+        <v>7.8341599999999997E-2</v>
+      </c>
+      <c r="O85" s="26">
+        <v>6.9525532424449921E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="B86" s="9">
+      <c r="B86" s="26">
         <v>7.6868720352649689E-2</v>
       </c>
-      <c r="C86" s="13">
+      <c r="C86" s="30">
         <v>42950.328125</v>
       </c>
-      <c r="D86" s="13">
+      <c r="D86" s="30">
         <v>3301.536865234375</v>
       </c>
-      <c r="E86" s="13">
+      <c r="E86" s="30">
         <v>41299.5625</v>
       </c>
-      <c r="F86" s="13">
+      <c r="F86" s="30">
         <v>294546.84375</v>
       </c>
-      <c r="G86" s="14">
+      <c r="G86" s="31">
         <v>6.8578486442565918</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="12" t="s">
+      <c r="M86" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="N86" s="37">
+        <v>8.6243899999999998E-2</v>
+      </c>
+      <c r="O86" s="26">
+        <v>7.6868720352649689E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B87" s="9">
+      <c r="B87" s="26">
         <v>8.6053855717182159E-2</v>
       </c>
-      <c r="C87" s="13">
+      <c r="C87" s="30">
         <v>39648.79296875</v>
       </c>
-      <c r="D87" s="13">
+      <c r="D87" s="30">
         <v>3411.931396484375</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E87" s="30">
         <v>37942.828125</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F87" s="30">
         <v>253247.265625</v>
       </c>
-      <c r="G87" s="14">
+      <c r="G87" s="31">
         <v>6.3872628211975098</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="12" t="s">
+      <c r="M87" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="N87" s="37">
+        <v>9.4861299999999996E-2</v>
+      </c>
+      <c r="O87" s="26">
+        <v>8.6053855717182159E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B88" s="9">
+      <c r="B88" s="26">
         <v>9.4544515013694763E-2</v>
       </c>
-      <c r="C88" s="13">
+      <c r="C88" s="30">
         <v>36236.86328125</v>
       </c>
-      <c r="D88" s="13">
+      <c r="D88" s="30">
         <v>3425.99658203125</v>
       </c>
-      <c r="E88" s="13">
+      <c r="E88" s="30">
         <v>34523.8671875</v>
       </c>
-      <c r="F88" s="13">
+      <c r="F88" s="30">
         <v>215304.4375</v>
       </c>
-      <c r="G88" s="14">
+      <c r="G88" s="31">
         <v>5.9415860176086426</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="12" t="s">
+      <c r="M88" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="N88" s="37">
+        <v>0.1042415</v>
+      </c>
+      <c r="O88" s="26">
+        <v>9.4544515013694763E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B89" s="9">
+      <c r="B89" s="26">
         <v>0.10619527846574783</v>
       </c>
-      <c r="C89" s="13">
+      <c r="C89" s="30">
         <v>32810.8671875</v>
       </c>
-      <c r="D89" s="13">
+      <c r="D89" s="30">
         <v>3484.359130859375</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E89" s="30">
         <v>31068.6875</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F89" s="30">
         <v>180780.578125</v>
       </c>
-      <c r="G89" s="14">
+      <c r="G89" s="31">
         <v>5.5097775459289551</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="12" t="s">
+      <c r="M89" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="N89" s="37">
+        <v>0.11443200000000001</v>
+      </c>
+      <c r="O89" s="26">
+        <v>0.10619527846574783</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="B90" s="9">
+      <c r="B90" s="26">
         <v>0.11898317933082581</v>
       </c>
-      <c r="C90" s="13">
+      <c r="C90" s="30">
         <v>29326.5078125</v>
       </c>
-      <c r="D90" s="13">
+      <c r="D90" s="30">
         <v>3489.361083984375</v>
       </c>
-      <c r="E90" s="13">
+      <c r="E90" s="30">
         <v>27581.828125</v>
       </c>
-      <c r="F90" s="13">
+      <c r="F90" s="30">
         <v>149711.890625</v>
       </c>
-      <c r="G90" s="14">
+      <c r="G90" s="31">
         <v>5.1050024032592773</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="12" t="s">
+      <c r="M90" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="N90" s="37">
+        <v>0.12547910000000001</v>
+      </c>
+      <c r="O90" s="26">
+        <v>0.11898317933082581</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B91" s="9">
+      <c r="B91" s="26">
         <v>0.132945716381073</v>
       </c>
-      <c r="C91" s="13">
+      <c r="C91" s="30">
         <v>25837.146484375</v>
       </c>
-      <c r="D91" s="13">
+      <c r="D91" s="30">
         <v>3434.93798828125</v>
       </c>
-      <c r="E91" s="13">
+      <c r="E91" s="30">
         <v>24119.677734375</v>
       </c>
-      <c r="F91" s="13">
+      <c r="F91" s="30">
         <v>122130.0625</v>
       </c>
-      <c r="G91" s="14">
+      <c r="G91" s="31">
         <v>4.7269177436828613</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="12" t="s">
+      <c r="M91" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="N91" s="37">
+        <v>0.1374272</v>
+      </c>
+      <c r="O91" s="26">
+        <v>0.132945716381073</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="B92" s="9">
+      <c r="B92" s="26">
         <v>0.14810365438461304</v>
       </c>
-      <c r="C92" s="13">
+      <c r="C92" s="30">
         <v>22402.208984375</v>
       </c>
-      <c r="D92" s="13">
+      <c r="D92" s="30">
         <v>3317.84912109375</v>
       </c>
-      <c r="E92" s="13">
+      <c r="E92" s="30">
         <v>20743.28515625</v>
       </c>
-      <c r="F92" s="13">
+      <c r="F92" s="30">
         <v>98010.3828125</v>
       </c>
-      <c r="G92" s="14">
+      <c r="G92" s="31">
         <v>4.3750319480895996</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="12" t="s">
+      <c r="M92" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="N92" s="37">
+        <v>0.15031739999999999</v>
+      </c>
+      <c r="O92" s="26">
+        <v>0.14810365438461304</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B93" s="9">
+      <c r="B93" s="26">
         <v>0.16445732116699219</v>
       </c>
-      <c r="C93" s="13">
+      <c r="C93" s="30">
         <v>19084.359375</v>
       </c>
-      <c r="D93" s="13">
+      <c r="D93" s="30">
         <v>3138.5625</v>
       </c>
-      <c r="E93" s="13">
+      <c r="E93" s="30">
         <v>17515.078125</v>
       </c>
-      <c r="F93" s="13">
+      <c r="F93" s="30">
         <v>77267.09375</v>
       </c>
-      <c r="G93" s="14">
+      <c r="G93" s="31">
         <v>4.048713207244873</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="12" t="s">
+      <c r="M93" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="N93" s="37">
+        <v>0.16418650000000001</v>
+      </c>
+      <c r="O93" s="26">
+        <v>0.16445732116699219</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="B94" s="9">
+      <c r="B94" s="26">
         <v>0.18198303878307343</v>
       </c>
-      <c r="C94" s="13">
+      <c r="C94" s="30">
         <v>15945.796875</v>
       </c>
-      <c r="D94" s="13">
+      <c r="D94" s="30">
         <v>2901.864501953125</v>
       </c>
-      <c r="E94" s="13">
+      <c r="E94" s="30">
         <v>14494.865234375</v>
       </c>
-      <c r="F94" s="13">
+      <c r="F94" s="30">
         <v>59752.01953125</v>
       </c>
-      <c r="G94" s="14">
+      <c r="G94" s="31">
         <v>3.7471954822540283</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="12" t="s">
+      <c r="M94" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="N94" s="37">
+        <v>0.17906559999999999</v>
+      </c>
+      <c r="O94" s="26">
+        <v>0.18198303878307343</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B95" s="9">
+      <c r="B95" s="26">
         <v>0.2006303071975708</v>
       </c>
-      <c r="C95" s="13">
+      <c r="C95" s="30">
         <v>13043.9326171875</v>
       </c>
-      <c r="D95" s="13">
+      <c r="D95" s="30">
         <v>2617.00830078125</v>
       </c>
-      <c r="E95" s="13">
+      <c r="E95" s="30">
         <v>11735.427734375</v>
       </c>
-      <c r="F95" s="13">
+      <c r="F95" s="30">
         <v>45257.15234375</v>
       </c>
-      <c r="G95" s="14">
+      <c r="G95" s="31">
         <v>3.4695942401885986</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="12" t="s">
+      <c r="M95" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="N95" s="37">
+        <v>0.1949786</v>
+      </c>
+      <c r="O95" s="26">
+        <v>0.2006303071975708</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B96" s="9">
+      <c r="B96" s="26">
         <v>0.22031974792480469</v>
       </c>
-      <c r="C96" s="13">
+      <c r="C96" s="30">
         <v>10426.923828125</v>
       </c>
-      <c r="D96" s="13">
+      <c r="D96" s="30">
         <v>2297.25732421875</v>
       </c>
-      <c r="E96" s="13">
+      <c r="E96" s="30">
         <v>9278.294921875</v>
       </c>
-      <c r="F96" s="13">
+      <c r="F96" s="30">
         <v>33521.7265625</v>
       </c>
-      <c r="G96" s="14">
+      <c r="G96" s="31">
         <v>3.2149200439453125</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="12" t="s">
+      <c r="M96" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="N96" s="37">
+        <v>0.21194060000000001</v>
+      </c>
+      <c r="O96" s="26">
+        <v>0.22031974792480469</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="B97" s="9">
+      <c r="B97" s="26">
         <v>0.24094247817993164</v>
       </c>
-      <c r="C97" s="13">
+      <c r="C97" s="30">
         <v>8129.66650390625</v>
       </c>
-      <c r="D97" s="13">
+      <c r="D97" s="30">
         <v>1958.781982421875</v>
       </c>
-      <c r="E97" s="13">
+      <c r="E97" s="30">
         <v>7150.275390625</v>
       </c>
-      <c r="F97" s="13">
+      <c r="F97" s="30">
         <v>24243.431640625</v>
       </c>
-      <c r="G97" s="14">
+      <c r="G97" s="31">
         <v>2.9820942878723145</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="12" t="s">
+      <c r="M97" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="N97" s="37">
+        <v>0.22995670000000001</v>
+      </c>
+      <c r="O97" s="26">
+        <v>0.24094247817993164</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="B98" s="9">
+      <c r="B98" s="26">
         <v>0.26236090064048767</v>
       </c>
-      <c r="C98" s="13">
+      <c r="C98" s="30">
         <v>6170.884765625</v>
       </c>
-      <c r="D98" s="13">
+      <c r="D98" s="30">
         <v>1618.9989013671875</v>
       </c>
-      <c r="E98" s="13">
+      <c r="E98" s="30">
         <v>5361.38525390625</v>
       </c>
-      <c r="F98" s="13">
+      <c r="F98" s="30">
         <v>17093.15625</v>
       </c>
-      <c r="G98" s="14">
+      <c r="G98" s="31">
         <v>2.7699685096740723</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="12" t="s">
+      <c r="M98" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="N98" s="37">
+        <v>0.2490203</v>
+      </c>
+      <c r="O98" s="26">
+        <v>0.26236090064048767</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="B99" s="9">
+      <c r="B99" s="26">
         <v>0.28441134095191956</v>
       </c>
-      <c r="C99" s="13">
+      <c r="C99" s="30">
         <v>4551.8857421875</v>
       </c>
-      <c r="D99" s="13">
+      <c r="D99" s="30">
         <v>1294.60791015625</v>
       </c>
-      <c r="E99" s="13">
+      <c r="E99" s="30">
         <v>3904.581787109375</v>
       </c>
-      <c r="F99" s="13">
+      <c r="F99" s="30">
         <v>11731.7705078125</v>
       </c>
-      <c r="G99" s="14">
+      <c r="G99" s="31">
         <v>2.5773429870605469</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="12" t="s">
+      <c r="M99" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="N99" s="37">
+        <v>0.26911200000000002</v>
+      </c>
+      <c r="O99" s="26">
+        <v>0.28441134095191956</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B100" s="9">
+      <c r="B100" s="26">
         <v>0.3069082498550415</v>
       </c>
-      <c r="C100" s="13">
+      <c r="C100" s="30">
         <v>3257.27783203125</v>
       </c>
-      <c r="D100" s="13">
+      <c r="D100" s="30">
         <v>999.6854248046875</v>
       </c>
-      <c r="E100" s="13">
+      <c r="E100" s="30">
         <v>2757.43505859375</v>
       </c>
-      <c r="F100" s="13">
+      <c r="F100" s="30">
         <v>7827.1884765625</v>
       </c>
-      <c r="G100" s="14">
+      <c r="G100" s="31">
         <v>2.402984619140625</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="12" t="s">
+      <c r="M100" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="N100" s="37">
+        <v>0.29019840000000002</v>
+      </c>
+      <c r="O100" s="26">
+        <v>0.3069082498550415</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="B101" s="9">
+      <c r="B101" s="26">
         <v>0.32965001463890076</v>
       </c>
-      <c r="C101" s="13">
+      <c r="C101" s="30">
         <v>2257.59228515625</v>
       </c>
-      <c r="D101" s="13">
+      <c r="D101" s="30">
         <v>744.21533203125</v>
       </c>
-      <c r="E101" s="13">
+      <c r="E101" s="30">
         <v>1885.484619140625</v>
       </c>
-      <c r="F101" s="13">
+      <c r="F101" s="30">
         <v>5069.75341796875</v>
       </c>
-      <c r="G101" s="14">
+      <c r="G101" s="31">
         <v>2.2456462383270264</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="15" t="s">
+      <c r="M101" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="N101" s="37">
+        <v>0.31223109999999998</v>
+      </c>
+      <c r="O101" s="26">
+        <v>0.32965001463890076</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A102" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="16">
+      <c r="B102" s="33">
         <v>1</v>
       </c>
-      <c r="C102" s="17">
+      <c r="C102" s="34">
         <v>1513.376953125</v>
       </c>
-      <c r="D102" s="17">
+      <c r="D102" s="34">
         <v>1513.376953125</v>
       </c>
-      <c r="E102" s="17">
+      <c r="E102" s="34">
         <v>3184.268798828125</v>
       </c>
-      <c r="F102" s="17">
+      <c r="F102" s="34">
         <v>3184.268798828125</v>
       </c>
-      <c r="G102" s="18">
+      <c r="G102" s="35">
         <v>2.1040816307067871</v>
+      </c>
+      <c r="M102" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="N102" s="39">
+        <v>1</v>
+      </c>
+      <c r="O102" s="33">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
